--- a/ListBuilder.xlsx
+++ b/ListBuilder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\articlesByAlexBrown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC632238-D808-4207-99DD-92631B40E06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B3224-0DFA-4422-A7B3-8E58B16614A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8D9596FC-1320-4622-A072-9EE2423BCD3E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t xml:space="preserve">        const items = [</t>
   </si>
@@ -147,13 +147,37 @@
     <t>https://georgiabulletin.org/news/2022/12/we-can-walk-with-trustworthy-guides/</t>
   </si>
   <si>
-    <t>My third and final about having a relationship with God and why we can trust the Church.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> December 9, 2022</t>
   </si>
   <si>
     <t>My second article in the series about a relationship with God in the person of Jesus Christ.</t>
+  </si>
+  <si>
+    <t>https://georgiabulletin.org/news/2023/04/what-heaven-will-be-like/</t>
+  </si>
+  <si>
+    <t>What heaven will be like </t>
+  </si>
+  <si>
+    <t>My third and final in the series about having a relationship with God and why we can trust the Church.</t>
+  </si>
+  <si>
+    <t>Written with Andrew McGovern, an exploration of what we know about heaven, part 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 5, 2023</t>
+  </si>
+  <si>
+    <t>https://georgiabulletin.org/news/2023/07/a-second-look-at-what-heaven-will-be-like/</t>
+  </si>
+  <si>
+    <t>A second look at what heaven will be like </t>
+  </si>
+  <si>
+    <t>Written with Andrew McGovern, an exploration of what we know about heaven, part 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> July 20, 2023</t>
   </si>
 </sst>
 </file>
@@ -623,7 +647,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +710,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -719,14 +743,14 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  {   title: 'We can walk with trustworthy guides', address: 'https://georgiabulletin.org/news/2022/12/we-can-walk-with-trustworthy-guides/', description: 'My third and final about having a relationship with God and why we can trust the Church.', linkTitle: ' December 9, 2022',},</v>
+        <v xml:space="preserve">  {   title: 'We can walk with trustworthy guides', address: 'https://georgiabulletin.org/news/2022/12/we-can-walk-with-trustworthy-guides/', description: 'My third and final in the series about having a relationship with God and why we can trust the Church.', linkTitle: ' December 9, 2022',},</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -745,9 +769,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  {   title: '', address: '', description: '', linkTitle: '',},</v>
+        <v xml:space="preserve">  {   title: 'What heaven will be like ', address: 'https://georgiabulletin.org/news/2023/04/what-heaven-will-be-like/', description: 'Written with Andrew McGovern, an exploration of what we know about heaven, part 1.', linkTitle: ' April 5, 2023',},</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -766,9 +802,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  {   title: '', address: '', description: '', linkTitle: '',},</v>
+        <v xml:space="preserve">  {   title: 'A second look at what heaven will be like ', address: 'https://georgiabulletin.org/news/2023/07/a-second-look-at-what-heaven-will-be-like/', description: 'Written with Andrew McGovern, an exploration of what we know about heaven, part 2.', linkTitle: ' July 20, 2023',},</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
